--- a/ExcelReader.ManuelE-Osorio/ExcelReader/Template.xlsx
+++ b/ExcelReader.ManuelE-Osorio/ExcelReader/Template.xlsx
@@ -20,45 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date (Date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qty (Int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date (Date)</t>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Date (Date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing Qty (Int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated Date (Date)</t>
   </si>
   <si>
     <t xml:space="preserve">Price (Double)</t>
   </si>
   <si>
-    <t xml:space="preserve">Hola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hola S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing S</t>
+    <t xml:space="preserve">Product 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of product 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of product 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product 3</t>
   </si>
 </sst>
 </file>
@@ -136,8 +133,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,108 +288,109 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>45333</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>45333</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>25.432</v>
+      <c r="D2" s="6" t="n">
+        <v>45327</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>45333</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>45333</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>25.432</v>
+      <c r="D3" s="6" t="n">
+        <v>45296</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>299.99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>45333</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>45333</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>25.432</v>
+      <c r="C4" s="3" t="str">
+        <f aca="false">_xlfn.CONCAT("Description of product ", A4)</f>
+        <v>Description of product 78</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>45323</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>6893.53</v>
       </c>
     </row>
   </sheetData>
